--- a/Code/Results/Cases/Case_2_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_210/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.28051275714233</v>
+        <v>8.927621164094839</v>
       </c>
       <c r="C2">
-        <v>8.496218914320952</v>
+        <v>7.036167523550205</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.5387588886934</v>
+        <v>16.52273998434378</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>14.67971238510484</v>
+        <v>21.38898576005713</v>
       </c>
       <c r="H2">
-        <v>7.292875658453125</v>
+        <v>12.58980090402059</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.88359543710124</v>
+        <v>9.126514747940647</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.91660090966047</v>
+        <v>18.15487118542927</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.39864374954734</v>
+        <v>8.526629530229632</v>
       </c>
       <c r="C3">
-        <v>8.181055052337282</v>
+        <v>6.910838680868044</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.4184849519062</v>
+        <v>15.58558963047363</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>14.85050008571618</v>
+        <v>21.57569643755049</v>
       </c>
       <c r="H3">
-        <v>7.450731352428132</v>
+        <v>12.65492127157398</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.21339400391906</v>
+        <v>8.810309577938671</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.16213063029748</v>
+        <v>18.27643367130139</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.82699668632837</v>
+        <v>8.270977669816366</v>
       </c>
       <c r="C4">
-        <v>7.981827491708164</v>
+        <v>6.832580812537681</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.05194217534965</v>
+        <v>14.98501082362067</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>14.99379799061791</v>
+        <v>21.70021256605301</v>
       </c>
       <c r="H4">
-        <v>7.55277617250237</v>
+        <v>12.69722219753125</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.78255372468611</v>
+        <v>8.608831311384503</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.32648240472746</v>
+        <v>18.35587344356469</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.58647569108181</v>
+        <v>8.164556964605778</v>
       </c>
       <c r="C5">
-        <v>7.899287761968256</v>
+        <v>6.8003922935992</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.47853261946031</v>
+        <v>14.73421049413865</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>15.06109471359686</v>
+        <v>21.75341715725123</v>
       </c>
       <c r="H5">
-        <v>7.595605618995658</v>
+        <v>12.71504323456757</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.60221725451353</v>
+        <v>8.524965713240354</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.39666378467481</v>
+        <v>18.38945098371154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.54608096631306</v>
+        <v>8.146754852750322</v>
       </c>
       <c r="C6">
-        <v>7.88550306931009</v>
+        <v>6.795030337938435</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.38231235265955</v>
+        <v>14.69220819127422</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>15.07278508958558</v>
+        <v>21.76239993803712</v>
       </c>
       <c r="H6">
-        <v>7.602791503962552</v>
+        <v>12.71803763513342</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.5719879633134</v>
+        <v>8.510936038122239</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.40850526219569</v>
+        <v>18.39509924875423</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.82378355292035</v>
+        <v>8.26955132392925</v>
       </c>
       <c r="C7">
-        <v>7.980719690415623</v>
+        <v>6.832147871703977</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.04427625523441</v>
+        <v>14.98165258440299</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>14.99467052597716</v>
+        <v>21.70092015427344</v>
       </c>
       <c r="H7">
-        <v>7.553348794706285</v>
+        <v>12.69746017679272</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.78014079550503</v>
+        <v>8.607707289744983</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.327416175037</v>
+        <v>18.35632140457804</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.98271340627742</v>
+        <v>8.791393141476416</v>
       </c>
       <c r="C8">
-        <v>8.388783982041282</v>
+        <v>6.993243038473216</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.82094913281532</v>
+        <v>16.20497880181815</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>14.73015830778445</v>
+        <v>21.45130199178301</v>
       </c>
       <c r="H8">
-        <v>7.346214168804215</v>
+        <v>12.61177386106767</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.65657336274604</v>
+        <v>9.019053725272411</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.99830291180619</v>
+        <v>18.19578861013851</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.01589468146878</v>
+        <v>9.734860899471803</v>
       </c>
       <c r="C9">
-        <v>9.140489708581818</v>
+        <v>7.297509743673445</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.76555230124954</v>
+        <v>18.48836619208137</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>14.55103292651825</v>
+        <v>21.04105795843175</v>
       </c>
       <c r="H9">
-        <v>6.982896536022941</v>
+        <v>12.46210287952087</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.21874077454533</v>
+        <v>9.764451962684868</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.4716092337242</v>
+        <v>17.91915182788767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.36450046208925</v>
+        <v>10.37384732087933</v>
       </c>
       <c r="C10">
-        <v>9.659715203977322</v>
+        <v>7.512327934959393</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.11244463216237</v>
+        <v>20.12722409329579</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>14.67283138886829</v>
+        <v>20.78922257744759</v>
       </c>
       <c r="H10">
-        <v>6.745818573275784</v>
+        <v>12.36330026954954</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.26823400770998</v>
+        <v>10.27115503628797</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.17407325026264</v>
+        <v>17.73929152551612</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.94686686393852</v>
+        <v>10.65189366260272</v>
       </c>
       <c r="C11">
-        <v>9.88820964260354</v>
+        <v>7.607840768391873</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.57761855618712</v>
+        <v>20.83039812197094</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>14.79240833470279</v>
+        <v>20.68569513983817</v>
       </c>
       <c r="H11">
-        <v>6.645476603932265</v>
+        <v>12.32076967892521</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.72407324430986</v>
+        <v>10.49216350507358</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.06251386974993</v>
+        <v>17.66257389798908</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.1629584634255</v>
+        <v>10.75530804548531</v>
       </c>
       <c r="C12">
-        <v>9.973593722030135</v>
+        <v>7.643666600008879</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.12462307086337</v>
+        <v>21.09061763039483</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>14.84757325675074</v>
+        <v>20.64810182778598</v>
       </c>
       <c r="H12">
-        <v>6.608663616269839</v>
+        <v>12.30501142428179</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.89357810993866</v>
+        <v>10.57444583537376</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.02410305504437</v>
+        <v>17.6342592299467</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.11661597874389</v>
+        <v>10.73312017181304</v>
       </c>
       <c r="C13">
-        <v>9.95525596603904</v>
+        <v>7.635966497066062</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.00715673329277</v>
+        <v>21.03484358170894</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>14.83524345758002</v>
+        <v>20.65612622360602</v>
       </c>
       <c r="H13">
-        <v>6.616537426961217</v>
+        <v>12.30838980839569</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.85721060185426</v>
+        <v>10.55678815296652</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.03219799396055</v>
+        <v>17.64032448888341</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.96473355334695</v>
+        <v>10.66043952336064</v>
       </c>
       <c r="C14">
-        <v>9.895257290244315</v>
+        <v>7.610795190189047</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.62277521344756</v>
+        <v>20.85192774689739</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>14.79674526931032</v>
+        <v>20.68256990676834</v>
       </c>
       <c r="H14">
-        <v>6.642423580479218</v>
+        <v>12.31946628099479</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.73808087858376</v>
+        <v>10.49896138544374</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.05927444122786</v>
+        <v>17.66022965223098</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.87112446322968</v>
+        <v>10.61567466038114</v>
       </c>
       <c r="C15">
-        <v>9.858356808174479</v>
+        <v>7.595331673643363</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.38632457747153</v>
+        <v>20.7390986531409</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>14.77446908888487</v>
+        <v>20.69897783800486</v>
       </c>
       <c r="H15">
-        <v>6.658437232716287</v>
+        <v>12.3262961466662</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.66470521679206</v>
+        <v>10.46335615938052</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.07637180190372</v>
+        <v>17.67251816267789</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.32581823108169</v>
+        <v>10.35541685676092</v>
       </c>
       <c r="C16">
-        <v>9.644624432022873</v>
+        <v>7.506039311388722</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.01557322574127</v>
+        <v>20.08042061732207</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>14.66636614009511</v>
+        <v>20.79621238184823</v>
       </c>
       <c r="H16">
-        <v>6.752535799243997</v>
+        <v>12.36612833040038</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.23800860949137</v>
+        <v>10.25651671757973</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.18187710100637</v>
+        <v>17.74440811667627</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.98334384915749</v>
+        <v>10.19247639909303</v>
       </c>
       <c r="C17">
-        <v>9.511506480922295</v>
+        <v>7.450677186303041</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.16026146288944</v>
+        <v>19.66551932813181</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>14.61697842653366</v>
+        <v>20.85870537834227</v>
       </c>
       <c r="H17">
-        <v>6.812254306636399</v>
+        <v>12.39118256135069</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.97070711925042</v>
+        <v>10.12716301091572</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.25297649307666</v>
+        <v>17.78981904522569</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.78342966887319</v>
+        <v>10.09757124967997</v>
       </c>
       <c r="C18">
-        <v>9.434216908465141</v>
+        <v>7.418627841179493</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.66288380286633</v>
+        <v>19.42289089463626</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>14.59457762130478</v>
+        <v>20.89568681476896</v>
       </c>
       <c r="H18">
-        <v>6.847302098384326</v>
+        <v>12.40582042984885</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.81493082523087</v>
+        <v>10.05187084093766</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.29608320011156</v>
+        <v>17.81641821964249</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.71523757677176</v>
+        <v>10.06523625394151</v>
       </c>
       <c r="C19">
-        <v>9.407924876525904</v>
+        <v>7.407741805082265</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.49353635530922</v>
+        <v>19.34005509982445</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>14.58800314479502</v>
+        <v>20.90838550318996</v>
       </c>
       <c r="H19">
-        <v>6.859285846313826</v>
+        <v>12.41081561121008</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.76183917401536</v>
+        <v>10.02622654450662</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.31104638067977</v>
+        <v>17.82550659584685</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.02010403285504</v>
+        <v>10.20994490776526</v>
       </c>
       <c r="C20">
-        <v>9.525752282261813</v>
+        <v>7.456592139469163</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.25186940157622</v>
+        <v>19.71009880299404</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>14.62160922699452</v>
+        <v>20.85194538379643</v>
       </c>
       <c r="H20">
-        <v>6.805824087716123</v>
+        <v>12.38849196828883</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.99937217361853</v>
+        <v>10.14102551885442</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.24517601471388</v>
+        <v>17.78493527380803</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.00946521450471</v>
+        <v>10.6818389223658</v>
       </c>
       <c r="C21">
-        <v>9.912911572835844</v>
+        <v>7.618198109836638</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.73588619192297</v>
+        <v>20.90581869343055</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>14.80778010474893</v>
+        <v>20.67475886389908</v>
       </c>
       <c r="H21">
-        <v>6.634787127368131</v>
+        <v>12.3162034317334</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.7731566220158</v>
+        <v>10.51598506191226</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.05121388809319</v>
+        <v>17.65436300652959</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.63022467804199</v>
+        <v>10.97929488734697</v>
       </c>
       <c r="C22">
-        <v>10.15927738909559</v>
+        <v>7.721808212091203</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.31395078865476</v>
+        <v>21.65199958369428</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>14.98729986771303</v>
+        <v>20.56835430316271</v>
       </c>
       <c r="H22">
-        <v>6.529968943182247</v>
+        <v>12.27098215056823</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.26073702452432</v>
+        <v>10.75281506901519</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.947016272528034</v>
+        <v>17.573321641638</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.30126435077764</v>
+        <v>10.82155644933733</v>
       </c>
       <c r="C23">
-        <v>10.02840623101792</v>
+        <v>7.666701272155782</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.47571042702142</v>
+        <v>21.25696719023441</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>14.88600145193628</v>
+        <v>20.62427671992124</v>
       </c>
       <c r="H23">
-        <v>6.585235994663117</v>
+        <v>12.29493249151987</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.00216511703698</v>
+        <v>10.62718022643571</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.00041718521489</v>
+        <v>17.61618090300208</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.0034941665812</v>
+        <v>10.20205121692489</v>
       </c>
       <c r="C24">
-        <v>9.519314114699171</v>
+        <v>7.453918675375439</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.21047107458942</v>
+        <v>19.68995718400925</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>14.61949702671451</v>
+        <v>20.85499829781725</v>
       </c>
       <c r="H24">
-        <v>6.808728970890847</v>
+        <v>12.38970765691509</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.98641924625355</v>
+        <v>10.13476115686535</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.24869569360702</v>
+        <v>17.78714169501942</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.4914567783783</v>
+        <v>9.488801940317916</v>
       </c>
       <c r="C25">
-        <v>8.942724120513326</v>
+        <v>7.216617112978913</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.47959065935965</v>
+        <v>17.84706862855227</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>14.55826221578079</v>
+        <v>21.14342660927449</v>
       </c>
       <c r="H25">
-        <v>7.076247661980921</v>
+        <v>12.50063075073655</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.81324374838343</v>
+        <v>9.569760534085882</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.59974910844491</v>
+        <v>17.98989174822109</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_210/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.927621164094839</v>
+        <v>14.28051275714228</v>
       </c>
       <c r="C2">
-        <v>7.036167523550205</v>
+        <v>8.496218914321116</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.52273998434378</v>
+        <v>29.53875888869338</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>21.38898576005713</v>
+        <v>14.67971238510492</v>
       </c>
       <c r="H2">
-        <v>12.58980090402059</v>
+        <v>7.292875658453251</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.126514747940647</v>
+        <v>12.88359543710117</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.15487118542927</v>
+        <v>10.91660090966064</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.526629530229632</v>
+        <v>13.39864374954735</v>
       </c>
       <c r="C3">
-        <v>6.910838680868044</v>
+        <v>8.181055052337179</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.58558963047363</v>
+        <v>27.41848495190623</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>21.57569643755049</v>
+        <v>14.85050008571607</v>
       </c>
       <c r="H3">
-        <v>12.65492127157398</v>
+        <v>7.450731352428143</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.810309577938671</v>
+        <v>12.21339400391905</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.27643367130139</v>
+        <v>11.16213063029746</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.270977669816366</v>
+        <v>12.82699668632842</v>
       </c>
       <c r="C4">
-        <v>6.832580812537681</v>
+        <v>7.981827491708127</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.98501082362067</v>
+        <v>26.05194217534975</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>21.70021256605301</v>
+        <v>14.99379799061773</v>
       </c>
       <c r="H4">
-        <v>12.69722219753125</v>
+        <v>7.552776172502367</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.608831311384503</v>
+        <v>11.78255372468611</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.35587344356469</v>
+        <v>11.32648240472732</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.164556964605778</v>
+        <v>12.58647569108187</v>
       </c>
       <c r="C5">
-        <v>6.8003922935992</v>
+        <v>7.899287761968234</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.73421049413865</v>
+        <v>25.47853261946025</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>21.75341715725123</v>
+        <v>15.06109471359694</v>
       </c>
       <c r="H5">
-        <v>12.71504323456757</v>
+        <v>7.595605618995604</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.524965713240354</v>
+        <v>11.60221725451356</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.38945098371154</v>
+        <v>11.39666378467475</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.146754852750322</v>
+        <v>12.54608096631317</v>
       </c>
       <c r="C6">
-        <v>6.795030337938435</v>
+        <v>7.885503069310078</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.69220819127422</v>
+        <v>25.38231235265959</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>21.76239993803712</v>
+        <v>15.07278508958507</v>
       </c>
       <c r="H6">
-        <v>12.71803763513342</v>
+        <v>7.602791503962552</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.510936038122239</v>
+        <v>11.5719879633135</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.39509924875423</v>
+        <v>11.40850526219548</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.26955132392925</v>
+        <v>12.82378355292036</v>
       </c>
       <c r="C7">
-        <v>6.832147871703977</v>
+        <v>7.980719690415637</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.98165258440299</v>
+        <v>26.04427625523447</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>21.70092015427344</v>
+        <v>14.99467052597705</v>
       </c>
       <c r="H7">
-        <v>12.69746017679272</v>
+        <v>7.553348794706285</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.607707289744983</v>
+        <v>11.78014079550505</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.35632140457804</v>
+        <v>11.32741617503698</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.791393141476416</v>
+        <v>13.98271340627744</v>
       </c>
       <c r="C8">
-        <v>6.993243038473216</v>
+        <v>8.388783982041282</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.20497880181815</v>
+        <v>28.82094913281535</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>21.45130199178301</v>
+        <v>14.73015830778435</v>
       </c>
       <c r="H8">
-        <v>12.61177386106767</v>
+        <v>7.34621416880403</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.019053725272411</v>
+        <v>12.65657336274607</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.19578861013851</v>
+        <v>10.99830291180598</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.734860899471803</v>
+        <v>16.01589468146884</v>
       </c>
       <c r="C9">
-        <v>7.297509743673445</v>
+        <v>9.140489708581734</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.48836619208137</v>
+        <v>33.76555230124961</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>21.04105795843175</v>
+        <v>14.55103292651793</v>
       </c>
       <c r="H9">
-        <v>12.46210287952087</v>
+        <v>6.982896536022941</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.764451962684868</v>
+        <v>14.21874077454535</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.91915182788767</v>
+        <v>10.47160923372402</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.37384732087933</v>
+        <v>17.36450046208921</v>
       </c>
       <c r="C10">
-        <v>7.512327934959393</v>
+        <v>9.659715203977411</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.12722409329579</v>
+        <v>37.11244463216244</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>20.78922257744759</v>
+        <v>14.67283138886825</v>
       </c>
       <c r="H10">
-        <v>12.36330026954954</v>
+        <v>6.745818573275779</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.27115503628797</v>
+        <v>15.26823400770997</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.73929152551612</v>
+        <v>10.1740732502626</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.65189366260272</v>
+        <v>17.94686686393859</v>
       </c>
       <c r="C11">
-        <v>7.607840768391873</v>
+        <v>9.88820964260332</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.83039812197094</v>
+        <v>38.5776185561871</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>20.68569513983817</v>
+        <v>14.79240833470284</v>
       </c>
       <c r="H11">
-        <v>12.32076967892521</v>
+        <v>6.645476603932265</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.49216350507358</v>
+        <v>15.72407324430982</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.66257389798908</v>
+        <v>10.06251386974993</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.75530804548531</v>
+        <v>18.16295846342551</v>
       </c>
       <c r="C12">
-        <v>7.643666600008879</v>
+        <v>9.973593722030055</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.09061763039483</v>
+        <v>39.1246230708633</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>20.64810182778598</v>
+        <v>14.84757325675083</v>
       </c>
       <c r="H12">
-        <v>12.30501142428179</v>
+        <v>6.608663616269847</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.57444583537376</v>
+        <v>15.89357810993866</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.6342592299467</v>
+        <v>10.02410305504444</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.73312017181304</v>
+        <v>18.11661597874396</v>
       </c>
       <c r="C13">
-        <v>7.635966497066062</v>
+        <v>9.955255966039028</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.03484358170894</v>
+        <v>39.00715673329286</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>20.65612622360602</v>
+        <v>14.83524345757987</v>
       </c>
       <c r="H13">
-        <v>12.30838980839569</v>
+        <v>6.61653742696117</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.55678815296652</v>
+        <v>15.85721060185428</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.64032448888341</v>
+        <v>10.03219799396045</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.66043952336064</v>
+        <v>17.964733553347</v>
       </c>
       <c r="C14">
-        <v>7.610795190189047</v>
+        <v>9.895257290244286</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.85192774689739</v>
+        <v>38.62277521344763</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>20.68256990676834</v>
+        <v>14.79674526931022</v>
       </c>
       <c r="H14">
-        <v>12.31946628099479</v>
+        <v>6.642423580479155</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.49896138544374</v>
+        <v>15.73808087858379</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.66022965223098</v>
+        <v>10.05927444122777</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.61567466038114</v>
+        <v>17.87112446322971</v>
       </c>
       <c r="C15">
-        <v>7.595331673643363</v>
+        <v>9.858356808174541</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.7390986531409</v>
+        <v>38.38632457747158</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>20.69897783800486</v>
+        <v>14.77446908888474</v>
       </c>
       <c r="H15">
-        <v>12.3262961466662</v>
+        <v>6.658437232716278</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.46335615938052</v>
+        <v>15.66470521679212</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.67251816267789</v>
+        <v>10.0763718019036</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.35541685676092</v>
+        <v>17.32581823108173</v>
       </c>
       <c r="C16">
-        <v>7.506039311388722</v>
+        <v>9.644624432022798</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.08042061732207</v>
+        <v>37.01557322574129</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>20.79621238184823</v>
+        <v>14.66636614009505</v>
       </c>
       <c r="H16">
-        <v>12.36612833040038</v>
+        <v>6.752535799243989</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.25651671757973</v>
+        <v>15.23800860949138</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.74440811667627</v>
+        <v>10.18187710100635</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.19247639909303</v>
+        <v>16.98334384915754</v>
       </c>
       <c r="C17">
-        <v>7.450677186303041</v>
+        <v>9.511506480922399</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.66551932813181</v>
+        <v>36.16026146288946</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>20.85870537834227</v>
+        <v>14.61697842653341</v>
       </c>
       <c r="H17">
-        <v>12.39118256135069</v>
+        <v>6.812254306636274</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.12716301091572</v>
+        <v>14.9707071192505</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.78981904522569</v>
+        <v>10.25297649307648</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.09757124967997</v>
+        <v>16.78342966887314</v>
       </c>
       <c r="C18">
-        <v>7.418627841179493</v>
+        <v>9.434216908465249</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.42289089463626</v>
+        <v>35.66288380286636</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>20.89568681476896</v>
+        <v>14.59457762130478</v>
       </c>
       <c r="H18">
-        <v>12.40582042984885</v>
+        <v>6.847302098384326</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.05187084093766</v>
+        <v>14.81493082523085</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.81641821964249</v>
+        <v>10.29608320011157</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.06523625394151</v>
+        <v>16.71523757677176</v>
       </c>
       <c r="C19">
-        <v>7.407741805082265</v>
+        <v>9.407924876526076</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.34005509982445</v>
+        <v>35.49353635530917</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>20.90838550318996</v>
+        <v>14.58800314479502</v>
       </c>
       <c r="H19">
-        <v>12.41081561121008</v>
+        <v>6.85928584631383</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.02622654450662</v>
+        <v>14.76183917401539</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.82550659584685</v>
+        <v>10.31104638067977</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.20994490776526</v>
+        <v>17.02010403285503</v>
       </c>
       <c r="C20">
-        <v>7.456592139469163</v>
+        <v>9.525752282261823</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.71009880299404</v>
+        <v>36.25186940157627</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>20.85194538379643</v>
+        <v>14.62160922699434</v>
       </c>
       <c r="H20">
-        <v>12.38849196828883</v>
+        <v>6.805824087716168</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.14102551885442</v>
+        <v>14.99937217361853</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.78493527380803</v>
+        <v>10.24517601471386</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.6818389223658</v>
+        <v>18.00946521450475</v>
       </c>
       <c r="C21">
-        <v>7.618198109836638</v>
+        <v>9.912911572835972</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.90581869343055</v>
+        <v>38.73588619192284</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>20.67475886389908</v>
+        <v>14.80778010474866</v>
       </c>
       <c r="H21">
-        <v>12.3162034317334</v>
+        <v>6.634787127367951</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.51598506191226</v>
+        <v>15.77315662201587</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.65436300652959</v>
+        <v>10.05121388809298</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.97929488734697</v>
+        <v>18.63022467804207</v>
       </c>
       <c r="C22">
-        <v>7.721808212091203</v>
+        <v>10.15927738909553</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.65199958369428</v>
+        <v>40.31395078865486</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>20.56835430316271</v>
+        <v>14.98729986771287</v>
       </c>
       <c r="H22">
-        <v>12.27098215056823</v>
+        <v>6.529968943182187</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.75281506901519</v>
+        <v>16.26073702452435</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.573321641638</v>
+        <v>9.94701627252789</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.82155644933733</v>
+        <v>18.30126435077773</v>
       </c>
       <c r="C23">
-        <v>7.666701272155782</v>
+        <v>10.02840623101773</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.25696719023441</v>
+        <v>39.47571042702154</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>20.62427671992124</v>
+        <v>14.8860014519362</v>
       </c>
       <c r="H23">
-        <v>12.29493249151987</v>
+        <v>6.585235994663121</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.62718022643571</v>
+        <v>16.00216511703701</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.61618090300208</v>
+        <v>10.00041718521484</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.20205121692489</v>
+        <v>17.00349416658119</v>
       </c>
       <c r="C24">
-        <v>7.453918675375439</v>
+        <v>9.519314114699235</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.68995718400925</v>
+        <v>36.21047107458943</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>20.85499829781725</v>
+        <v>14.61949702671464</v>
       </c>
       <c r="H24">
-        <v>12.38970765691509</v>
+        <v>6.808728970890729</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.13476115686535</v>
+        <v>14.98641924625354</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.78714169501942</v>
+        <v>10.24869569360706</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.488801940317916</v>
+        <v>15.49145677837836</v>
       </c>
       <c r="C25">
-        <v>7.216617112978913</v>
+        <v>8.942724120513228</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.84706862855227</v>
+        <v>32.47959065935965</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>21.14342660927449</v>
+        <v>14.55826221578074</v>
       </c>
       <c r="H25">
-        <v>12.50063075073655</v>
+        <v>7.076247661980982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.569760534085882</v>
+        <v>13.81324374838343</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.98989174822109</v>
+        <v>10.59974910844491</v>
       </c>
     </row>
   </sheetData>
